--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$LMSP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$LMSP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F80EEE-2E8E-4048-A30B-D38B7A3F9C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF84694-D2CF-4394-8044-1EB6D74FA1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5268" yWindow="1476" windowWidth="10752" windowHeight="11676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$DC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$DD$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="237">
   <si>
     <t>LA$LMSP</t>
   </si>
@@ -757,6 +757,22 @@
   </si>
   <si>
     <t>LMSSRP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1136,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC53"/>
+  <dimension ref="A1:DD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1150,106 +1166,107 @@
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="3.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="137.625" style="2" collapsed="1"/>
-    <col min="13" max="13" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="137.625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="137.625" style="2" collapsed="1"/>
-    <col min="25" max="25" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="30" width="137.625" style="2" collapsed="1"/>
-    <col min="31" max="31" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="36" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="137.625" style="2" collapsed="1"/>
-    <col min="37" max="37" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="24.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="137.625" style="2" collapsed="1"/>
-    <col min="43" max="43" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="27.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="137.625" style="2" collapsed="1"/>
-    <col min="49" max="49" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="14.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="36" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="137.625" style="2" collapsed="1"/>
-    <col min="55" max="55" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="137.625" style="2" collapsed="1"/>
-    <col min="61" max="61" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="9.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="6.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="137.625" style="2" collapsed="1"/>
-    <col min="67" max="67" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="11.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="137.625" style="2" collapsed="1"/>
-    <col min="73" max="73" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="21.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="24.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="78" width="137.625" style="2" collapsed="1"/>
-    <col min="79" max="79" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="84" width="137.625" style="2" collapsed="1"/>
-    <col min="85" max="85" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="19.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="90" width="137.625" style="2" collapsed="1"/>
-    <col min="91" max="91" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="18.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="96" width="137.625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="137.625" style="2" collapsed="1"/>
-    <col min="103" max="103" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="16384" width="137.625" style="2"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="137.625" style="2" collapsed="1"/>
+    <col min="14" max="14" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="137.625" style="2" collapsed="1"/>
+    <col min="20" max="20" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="137.625" style="2" collapsed="1"/>
+    <col min="26" max="26" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="137.625" style="2" collapsed="1"/>
+    <col min="32" max="32" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="36" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="137.625" style="2" collapsed="1"/>
+    <col min="38" max="38" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="24.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="137.625" style="2" collapsed="1"/>
+    <col min="44" max="44" width="23.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="27.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="137.625" style="2" collapsed="1"/>
+    <col min="50" max="50" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="14.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="36" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="137.625" style="2" collapsed="1"/>
+    <col min="56" max="56" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="24.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="137.625" style="2" collapsed="1"/>
+    <col min="62" max="62" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="9.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="6.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="137.625" style="2" collapsed="1"/>
+    <col min="68" max="68" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="11.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="137.625" style="2" collapsed="1"/>
+    <col min="74" max="74" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="21.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="24.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="79" width="137.625" style="2" collapsed="1"/>
+    <col min="80" max="80" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="85" width="137.625" style="2" collapsed="1"/>
+    <col min="86" max="86" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="19.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="91" width="137.625" style="2" collapsed="1"/>
+    <col min="92" max="92" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="18.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="97" width="137.625" style="2" collapsed="1"/>
+    <col min="98" max="98" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="137.625" style="2" collapsed="1"/>
+    <col min="104" max="104" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="12.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="16384" width="137.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:108" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,8 +1279,11 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1279,20 +1299,23 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="G2" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1308,68 +1331,68 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>13</v>
+      <c r="R3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="4" t="s">
+      <c r="X3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1385,68 +1408,68 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>13</v>
+      <c r="R4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="4" t="s">
+      <c r="X4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1462,113 +1485,113 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="R5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="4" t="s">
+      <c r="X5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AD5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="AL5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AR5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AS5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AT5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AU5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AU5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AV5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1584,23 +1607,26 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
+      <c r="G6" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1616,38 +1642,38 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1663,53 +1689,56 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
+      <c r="G8" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1725,23 +1754,23 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1757,53 +1786,53 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>13</v>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="T10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1819,263 +1848,263 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="4" t="s">
+      <c r="X11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AD11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AG11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AI11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AJ11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AM11" s="4" t="s">
+      <c r="AN11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AO11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AO11" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="4" t="s">
+      <c r="AR11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AR11" s="4" t="s">
+      <c r="AS11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="AT11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AT11" s="4" t="s">
+      <c r="AU11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AU11" s="4" t="s">
+      <c r="AV11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AW11" s="4" t="s">
+      <c r="AX11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AX11" s="4" t="s">
+      <c r="AY11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AY11" s="4" t="s">
+      <c r="AZ11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AZ11" s="4" t="s">
+      <c r="BA11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BA11" s="4" t="s">
+      <c r="BB11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BC11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="BD11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BE11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="4" t="s">
+      <c r="BG11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BG11" s="4" t="s">
+      <c r="BH11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BI11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="BJ11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BL11" s="4" t="s">
+      <c r="BM11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BM11" s="4" t="s">
+      <c r="BN11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BO11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="BP11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BQ11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BR11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BR11" s="4" t="s">
+      <c r="BS11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BS11" s="4" t="s">
+      <c r="BT11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BU11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="BV11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BW11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BX11" s="4" t="s">
+      <c r="BY11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BY11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA11" s="4" t="s">
-        <v>13</v>
+      <c r="BZ11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="CB11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CC11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="CD11" s="4" t="s">
+      <c r="CE11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CE11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CG11" s="4" t="s">
-        <v>13</v>
+      <c r="CF11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="CH11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CI11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CJ11" s="4" t="s">
+      <c r="CK11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CK11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CM11" s="4" t="s">
-        <v>13</v>
+      <c r="CL11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="CN11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CO11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CP11" s="4" t="s">
+      <c r="CQ11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CQ11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CS11" s="4" t="s">
-        <v>13</v>
+      <c r="CR11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="CT11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CU11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CV11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="CV11" s="4" t="s">
+      <c r="CW11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="CW11" s="4" t="s">
+      <c r="CX11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="CY11" s="4" t="s">
+      <c r="CZ11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CZ11" s="4" t="s">
+      <c r="DA11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="DA11" s="4" t="s">
+      <c r="DB11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="DB11" s="4" t="s">
+      <c r="DC11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="DC11" s="4" t="s">
+      <c r="DD11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>83</v>
       </c>
@@ -2091,83 +2120,83 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>13</v>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>13</v>
+      <c r="R12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>13</v>
+      <c r="X12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>13</v>
+      <c r="AD12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AI12" s="4" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -2183,38 +2212,38 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
@@ -2230,23 +2259,23 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -2262,98 +2291,98 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AC15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AD15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AG15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AH15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AI15" s="4" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AK15" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="AL15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AO15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AO15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:107" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:108" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2369,23 +2398,23 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>102</v>
       </c>
@@ -2401,38 +2430,38 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>13</v>
+      <c r="L17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>106</v>
       </c>
@@ -2448,23 +2477,23 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>110</v>
       </c>
@@ -2480,23 +2509,23 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
@@ -2512,68 +2541,68 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>13</v>
+      <c r="L20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="T20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="X20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="Z20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AB20" s="4" t="s">
+      <c r="AC20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>122</v>
       </c>
@@ -2589,23 +2618,23 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>125</v>
       </c>
@@ -2621,23 +2650,23 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>128</v>
       </c>
@@ -2653,38 +2682,38 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>134</v>
       </c>
@@ -2700,53 +2729,53 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S24" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="T24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="X24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>136</v>
       </c>
@@ -2762,38 +2791,38 @@
       <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>215</v>
       </c>
@@ -2809,20 +2838,20 @@
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>141</v>
       </c>
@@ -2838,23 +2867,23 @@
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>218</v>
       </c>
@@ -2874,7 +2903,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>220</v>
       </c>
@@ -2894,7 +2923,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -2914,7 +2943,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>222</v>
       </c>
@@ -2934,7 +2963,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>148</v>
       </c>
@@ -2950,53 +2979,53 @@
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="4" t="s">
+      <c r="R32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="U32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="V32" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
@@ -3012,53 +3041,53 @@
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="4" t="s">
+      <c r="L33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="4" t="s">
+      <c r="R33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="U33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="V33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="W33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>223</v>
       </c>
@@ -3078,7 +3107,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>159</v>
       </c>
@@ -3094,23 +3123,23 @@
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>163</v>
       </c>
@@ -3126,38 +3155,41 @@
       <c r="E36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>13</v>
+      <c r="G36" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="4" t="s">
+      <c r="L36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>166</v>
       </c>
@@ -3173,23 +3205,23 @@
       <c r="E37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>169</v>
       </c>
@@ -3205,38 +3237,38 @@
       <c r="E38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>13</v>
+      <c r="L38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>175</v>
       </c>
@@ -3252,23 +3284,23 @@
       <c r="E39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>177</v>
       </c>
@@ -3284,38 +3316,38 @@
       <c r="E40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="4" t="s">
+      <c r="L40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>224</v>
       </c>
@@ -3331,23 +3363,23 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>182</v>
       </c>
@@ -3363,23 +3395,23 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>186</v>
       </c>
@@ -3395,23 +3427,26 @@
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>13</v>
+      <c r="G43" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>228</v>
       </c>
@@ -3431,7 +3466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>229</v>
       </c>
@@ -3451,7 +3486,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>192</v>
       </c>
@@ -3467,23 +3502,23 @@
       <c r="E46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>230</v>
       </c>
@@ -3503,7 +3538,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>197</v>
       </c>
@@ -3519,23 +3554,23 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>200</v>
       </c>
@@ -3551,23 +3586,23 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>204</v>
       </c>
@@ -3583,23 +3618,23 @@
       <c r="E50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>231</v>
       </c>
@@ -3619,7 +3654,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>232</v>
       </c>
@@ -3639,7 +3674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>210</v>
       </c>
@@ -3660,7 +3695,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DC1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:DD1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
